--- a/export/metody.xlsx
+++ b/export/metody.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
-    <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
+    <sheet name="Service" sheetId="1" r:id="rId1"/>
+    <sheet name="Model" sheetId="2" r:id="rId2"/>
     <sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,22 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
-  <si>
-    <t>createCategory</t>
-  </si>
-  <si>
-    <t>merge</t>
-  </si>
-  <si>
-    <t>removeCategory</t>
-  </si>
-  <si>
-    <t>decrypt</t>
-  </si>
-  <si>
-    <t>encrypt</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="125">
   <si>
     <t>CategoryService</t>
   </si>
@@ -39,145 +24,446 @@
     <t>ExpenseService</t>
   </si>
   <si>
-    <t>findAllExpense</t>
-  </si>
-  <si>
-    <t>findFirstExpense</t>
-  </si>
-  <si>
-    <t>findExpenseForDates</t>
-  </si>
-  <si>
-    <t>findExpenseByCategory</t>
-  </si>
-  <si>
-    <t>creteExpense</t>
-  </si>
-  <si>
-    <t>removeExpense</t>
-  </si>
-  <si>
-    <t>getValueString</t>
-  </si>
-  <si>
-    <t>prepareNewExpense</t>
-  </si>
-  <si>
-    <t>saveExpense</t>
-  </si>
-  <si>
     <t>findExpensesToNotify</t>
   </si>
   <si>
     <t>ExpenseSheetService</t>
   </si>
   <si>
-    <t>removeExpenseSheet</t>
-  </si>
-  <si>
-    <t>findExpenseSheet</t>
-  </si>
-  <si>
-    <t>createExpenseSheet</t>
-  </si>
-  <si>
-    <t>getExpenseList</t>
-  </si>
-  <si>
-    <t>prepareExpenseMap</t>
-  </si>
-  <si>
-    <t>addExpenseToDateMap</t>
-  </si>
-  <si>
-    <t>addExpenseToCategoryMap</t>
-  </si>
-  <si>
-    <t>addExpenseToUserLimitMap</t>
-  </si>
-  <si>
-    <t>addExpense</t>
-  </si>
-  <si>
-    <t>removeExpenseFromMap</t>
-  </si>
-  <si>
-    <t>getUserLimitForUser</t>
-  </si>
-  <si>
-    <t>getAllComments</t>
-  </si>
-  <si>
-    <t>getCommentForCategory</t>
-  </si>
-  <si>
-    <t>getYearList</t>
-  </si>
-  <si>
-    <t>getDateExpenseMap</t>
-  </si>
-  <si>
-    <t>getCategoryExpenseMap</t>
-  </si>
-  <si>
-    <t>getUserLimitExpenseMap</t>
-  </si>
-  <si>
-    <t>getCommentsList</t>
-  </si>
-  <si>
-    <t>moveCategoryUp</t>
-  </si>
-  <si>
-    <t>moveCategoryDown</t>
-  </si>
-  <si>
     <t>RealUserService</t>
   </si>
   <si>
-    <t>refresh</t>
-  </si>
-  <si>
-    <t>createRealUser</t>
-  </si>
-  <si>
-    <t>setDefaultExpenseSheet</t>
-  </si>
-  <si>
-    <t>getUserData</t>
-  </si>
-  <si>
-    <t>findRealUser</t>
-  </si>
-  <si>
     <t>UserLimitService</t>
   </si>
   <si>
-    <t>removeUserLimit</t>
-  </si>
-  <si>
-    <t>createUserLimit</t>
-  </si>
-  <si>
     <t>UserService</t>
   </si>
   <si>
-    <t>createUser</t>
-  </si>
-  <si>
     <t>UserSummaryService</t>
   </si>
   <si>
-    <t>createUserSummary</t>
-  </si>
-  <si>
-    <t>calculateSum</t>
-  </si>
-  <si>
-    <t>findUserSummary</t>
-  </si>
-  <si>
-    <t>checkSummary</t>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Expense</t>
+  </si>
+  <si>
+    <t>ExpenseSheet</t>
+  </si>
+  <si>
+    <t>RealUser</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>UserLimit</t>
+  </si>
+  <si>
+    <t>UserSummary</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>name_byte</t>
+  </si>
+  <si>
+    <t>multiplier</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>createCategory
+(ExpenseSheet expenseSheet, String name)</t>
+  </si>
+  <si>
+    <t>merge
+(Category category)</t>
+  </si>
+  <si>
+    <t>removeCategory
+(ExpenseSheet expenseSheet, Category category)</t>
+  </si>
+  <si>
+    <t>decrypt
+(Category category)</t>
+  </si>
+  <si>
+    <t>encrypt
+(Category category)</t>
+  </si>
+  <si>
+    <t>creteExpense
+(ExpenseSheet expenseSheet, Expense expense)</t>
+  </si>
+  <si>
+    <t>merge
+(Expense expense)</t>
+  </si>
+  <si>
+    <t>removeExpense
+(ExpenseSheet expenseSheet, Expense expense)</t>
+  </si>
+  <si>
+    <t>decrypt
+(Expense expense)</t>
+  </si>
+  <si>
+    <t>encrypt
+(Expense expense)</t>
+  </si>
+  <si>
+    <t>findAllExpense
+(ExpenseSheet expenseSheet)</t>
+  </si>
+  <si>
+    <t>findFirstExpense
+(ExpenseSheet expenseSheet)</t>
+  </si>
+  <si>
+    <t>findExpenseForDates
+(ExpenseSheet expenseSheet)</t>
+  </si>
+  <si>
+    <t>findExpenseByCategory
+(ExpenseSheet expenseSheet, Category category)</t>
+  </si>
+  <si>
+    <t>getValueString
+(Expense expense)</t>
+  </si>
+  <si>
+    <t>prepareNewExpense
+(ExpenseSheet expenseSheet, Date date, Category category, User user)</t>
+  </si>
+  <si>
+    <t>saveExpense
+(ExpenseSheet expenseSheet, Expense expense, UserLimit userLimit, String formula, Object comment, Boolean notify, Boolean modify)</t>
+  </si>
+  <si>
+    <t>createExpenseSheet
+(RealUser owner, String name, String key)</t>
+  </si>
+  <si>
+    <t>merge
+(ExpenseSheet expenseSheet)</t>
+  </si>
+  <si>
+    <t>removeExpenseSheet
+(ExpenseSheet expenseSheet)</t>
+  </si>
+  <si>
+    <t>decrypt
+(ExpenseSheet expenseSheet)</t>
+  </si>
+  <si>
+    <t>encrypt
+(ExpenseSheet expenseSheet)</t>
+  </si>
+  <si>
+    <t>findExpenseSheet
+(RealUser realUser, int id)</t>
+  </si>
+  <si>
+    <t>getExpenseList
+(ExpenseSheet expenseSheet)</t>
+  </si>
+  <si>
+    <t>prepareExpenseMap
+(ExpenseSheet expenseSheet, Date startDate, Date endDate, Date firstDay, Date lastDay)</t>
+  </si>
+  <si>
+    <t>addExpenseToDateMap
+(ExpenseSheet expenseSheet, Expense expense)</t>
+  </si>
+  <si>
+    <t>addExpenseToCategoryMap
+(ExpenseSheet expenseSheet, Expense expense)</t>
+  </si>
+  <si>
+    <t>addExpenseToUserLimitMap
+(ExpenseSheet expenseSheet, Expense expense)</t>
+  </si>
+  <si>
+    <t>addExpense
+(ExpenseSheet expenseSheet, Expense expense)</t>
+  </si>
+  <si>
+    <t>removeExpenseFromMap
+(ExpenseSheet expenseSheet, Expense expense)</t>
+  </si>
+  <si>
+    <t>getUserLimitForUser
+(ExpenseSheet expenseSheet, User user)</t>
+  </si>
+  <si>
+    <t>getAllComments
+(ExpenseSheet expenseSheet)</t>
+  </si>
+  <si>
+    <t>getCommentForCategory
+(ExpenseSheet expenseSheet, Category category)</t>
+  </si>
+  <si>
+    <t>getYearList
+(ExpenseSheet expenseSheet)</t>
+  </si>
+  <si>
+    <t>getDateExpenseMap
+(ExpenseSheet expenseSheet, Date date)</t>
+  </si>
+  <si>
+    <t>getCategoryExpenseMap
+(ExpenseSheet expenseSheet, Category category)</t>
+  </si>
+  <si>
+    <t>getUserLimitExpenseMap
+(ExpenseSheet expenseSheet, UserLimit userLimit)</t>
+  </si>
+  <si>
+    <t>getCommentsList
+(ExpenseSheet expenseSheet)</t>
+  </si>
+  <si>
+    <t>moveCategoryUp
+(ExpenseSheet expenseSheet, Category category)</t>
+  </si>
+  <si>
+    <t>moveCategoryDown
+(ExpenseSheet expenseSheet, Category category)</t>
+  </si>
+  <si>
+    <t>prepareYearCategoryList
+(ExpenseSheet expenseSheet)</t>
+  </si>
+  <si>
+    <t>getUserLimitListDesc
+(ExpenseSheet expenseSheet)</t>
+  </si>
+  <si>
+    <t>getUserLimitListRealUser
+(ExpenseSheet expenseSheet)</t>
+  </si>
+  <si>
+    <t>getUserLimitListNotRealUser
+(ExpenseSheet expenseSheet)</t>
+  </si>
+  <si>
+    <t>createRealUser
+(String name, String password, String email)</t>
+  </si>
+  <si>
+    <t>merge
+(RealUser realUser, boolean passwordChange)</t>
+  </si>
+  <si>
+    <t>refresh
+(RealUser realUser)</t>
+  </si>
+  <si>
+    <t>setDefaultExpenseSheet
+(RealUser realUser, ExpenseSheet expenseSheet)</t>
+  </si>
+  <si>
+    <t>getUserData
+(String userName, String password)</t>
+  </si>
+  <si>
+    <t>findRealUser
+(String userName)</t>
+  </si>
+  <si>
+    <t>createUserLimit
+(ExpenseSheet expenseSheet, User user)</t>
+  </si>
+  <si>
+    <t>merge
+(UserLimit userLimit)</t>
+  </si>
+  <si>
+    <t>removeUserLimit
+(ExpenseSheet expenseSheet, UserLimit userLimit)</t>
+  </si>
+  <si>
+    <t>decrypt
+(UserLimit userLimit)</t>
+  </si>
+  <si>
+    <t>encrypt
+(UserLimit userLimit)</t>
+  </si>
+  <si>
+    <t>createUser
+(String name)</t>
+  </si>
+  <si>
+    <t>createUserSummary
+(UserLimit userLimit, Date date)</t>
+  </si>
+  <si>
+    <t>merge
+(UserSummary userSummary)</t>
+  </si>
+  <si>
+    <t>decrypt
+(UserSummary userSummary)</t>
+  </si>
+  <si>
+    <t>encrypt
+(UserSummary userSummary)</t>
+  </si>
+  <si>
+    <t>calculateSum
+(UserLimit userLimit, Date date)</t>
+  </si>
+  <si>
+    <t>findUserSummary
+(UserLimit userLimit, Date date)</t>
+  </si>
+  <si>
+    <t>checkSummary
+(ExpenseSheet expenseSheet, Date date)</t>
+  </si>
+  <si>
+    <t>getName
+(boolean encrypt)</t>
+  </si>
+  <si>
+    <t>setName
+(String name, boolean encrypt)</t>
+  </si>
+  <si>
+    <t>getFormula
+(boolean encrypt)</t>
+  </si>
+  <si>
+    <t>setFormula
+(String formula, boolean encrypt)</t>
+  </si>
+  <si>
+    <t>getValue</t>
+  </si>
+  <si>
+    <t>getComment
+(boolean encrypt)</t>
+  </si>
+  <si>
+    <t>setComment
+(String comment, boolean encrypt)</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>notify</t>
+  </si>
+  <si>
+    <t>expenseSheet</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>categoryList</t>
+  </si>
+  <si>
+    <t>userLimitList</t>
+  </si>
+  <si>
+    <t>expenseList</t>
+  </si>
+  <si>
+    <t>reloadDay</t>
+  </si>
+  <si>
+    <t>encrypted</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>dateExpenseMap</t>
+  </si>
+  <si>
+    <t>categoryExpenseMap</t>
+  </si>
+  <si>
+    <t>userLimitExpenseMap</t>
+  </si>
+  <si>
+    <t>filter</t>
+  </si>
+  <si>
+    <t>firstDate</t>
+  </si>
+  <si>
+    <t>lastDate</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>logDate</t>
+  </si>
+  <si>
+    <t>expenseSheetList</t>
+  </si>
+  <si>
+    <t>defaultExpenseSheet</t>
+  </si>
+  <si>
+    <t>clearPassword</t>
+  </si>
+  <si>
+    <t>creationDate</t>
+  </si>
+  <si>
+    <t>getLimit
+(boolean encrypt)</t>
+  </si>
+  <si>
+    <t>setLimit
+(BigDecimal limit, boolean encrypt)</t>
+  </si>
+  <si>
+    <t>userSummaryList</t>
+  </si>
+  <si>
+    <t>continuousSummary</t>
+  </si>
+  <si>
+    <t>getSum
+(boolean encrypt)</t>
+  </si>
+  <si>
+    <t>setSum
+(BigDecimal sum, boolean encrypt)</t>
+  </si>
+  <si>
+    <t>formula_byte</t>
+  </si>
+  <si>
+    <t>comment_byte</t>
+  </si>
+  <si>
+    <t>limit_byte</t>
+  </si>
+  <si>
+    <t>sum_byte</t>
   </si>
 </sst>
 </file>
@@ -238,11 +524,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -544,279 +835,293 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8:G10"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="D10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" t="s">
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C16" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" t="s">
+    <row r="17" spans="3:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C17" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" t="s">
+    <row r="18" spans="3:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C18" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" t="s">
+    <row r="19" spans="3:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C19" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C28" s="2"/>
+    <row r="20" spans="3:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C20" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C21" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C22" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C23" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C24" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C25" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C26" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C27" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C28" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C29" s="3" t="s">
+        <v>63</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -826,13 +1131,259 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="33" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" t="s">
+        <v>113</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F10" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
